--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3443.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3443.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.416224058575459</v>
+        <v>1.31861424446106</v>
       </c>
       <c r="B1">
-        <v>2.783517072647629</v>
+        <v>2.437829494476318</v>
       </c>
       <c r="C1">
-        <v>3.26023459088315</v>
+        <v>5.855088233947754</v>
       </c>
       <c r="D1">
-        <v>3.78049912759979</v>
+        <v>1.724735021591187</v>
       </c>
       <c r="E1">
-        <v>1.950793190655615</v>
+        <v>1.291378617286682</v>
       </c>
     </row>
   </sheetData>
